--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fndc5-Itgb5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fndc5-Itgb5.xlsx
@@ -534,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.116649</v>
+        <v>0.15188</v>
       </c>
       <c r="H2">
-        <v>0.349947</v>
+        <v>0.45564</v>
       </c>
       <c r="I2">
-        <v>0.186245347817965</v>
+        <v>0.229582042173683</v>
       </c>
       <c r="J2">
-        <v>0.186245347817965</v>
+        <v>0.229582042173683</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.126464333333334</v>
+        <v>9.101794333333332</v>
       </c>
       <c r="N2">
-        <v>18.379393</v>
+        <v>27.305383</v>
       </c>
       <c r="O2">
-        <v>0.1081098818071741</v>
+        <v>0.1526015110517656</v>
       </c>
       <c r="P2">
-        <v>0.1081098818071741</v>
+        <v>0.1526015110517656</v>
       </c>
       <c r="Q2">
-        <v>0.7146459380190001</v>
+        <v>1.382380523346666</v>
       </c>
       <c r="R2">
-        <v>6.431813442171</v>
+        <v>12.44142471012</v>
       </c>
       <c r="S2">
-        <v>0.02013496253973623</v>
+        <v>0.0350345665460542</v>
       </c>
       <c r="T2">
-        <v>0.02013496253973623</v>
+        <v>0.0350345665460542</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.116649</v>
+        <v>0.15188</v>
       </c>
       <c r="H3">
-        <v>0.349947</v>
+        <v>0.45564</v>
       </c>
       <c r="I3">
-        <v>0.186245347817965</v>
+        <v>0.229582042173683</v>
       </c>
       <c r="J3">
-        <v>0.186245347817965</v>
+        <v>0.229582042173683</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>107.212106</v>
       </c>
       <c r="O3">
-        <v>0.6306349784216607</v>
+        <v>0.5991759712230392</v>
       </c>
       <c r="P3">
-        <v>0.6306349784216608</v>
+        <v>0.5991759712230392</v>
       </c>
       <c r="Q3">
-        <v>4.168728317598</v>
+        <v>5.427791553093333</v>
       </c>
       <c r="R3">
-        <v>37.518554858382</v>
+        <v>48.85012397784</v>
       </c>
       <c r="S3">
-        <v>0.117452830902317</v>
+        <v>0.1375600430947853</v>
       </c>
       <c r="T3">
-        <v>0.1174528309023171</v>
+        <v>0.1375600430947853</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.116649</v>
+        <v>0.15188</v>
       </c>
       <c r="H4">
-        <v>0.349947</v>
+        <v>0.45564</v>
       </c>
       <c r="I4">
-        <v>0.186245347817965</v>
+        <v>0.229582042173683</v>
       </c>
       <c r="J4">
-        <v>0.186245347817965</v>
+        <v>0.229582042173683</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>44.415097</v>
       </c>
       <c r="O4">
-        <v>0.2612551397711651</v>
+        <v>0.2482225177251951</v>
       </c>
       <c r="P4">
-        <v>0.2612551397711651</v>
+        <v>0.2482225177251951</v>
       </c>
       <c r="Q4">
-        <v>1.726992216651</v>
+        <v>2.248588310786667</v>
       </c>
       <c r="R4">
-        <v>15.542929949859</v>
+        <v>20.23729479708</v>
       </c>
       <c r="S4">
-        <v>0.0486575543759117</v>
+        <v>0.05698743253284352</v>
       </c>
       <c r="T4">
-        <v>0.0486575543759117</v>
+        <v>0.05698743253284352</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1.52901</v>
       </c>
       <c r="I5">
-        <v>0.813754652182035</v>
+        <v>0.7704179578263169</v>
       </c>
       <c r="J5">
-        <v>0.813754652182035</v>
+        <v>0.7704179578263169</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.126464333333334</v>
+        <v>9.101794333333332</v>
       </c>
       <c r="N5">
-        <v>18.379393</v>
+        <v>27.305383</v>
       </c>
       <c r="O5">
-        <v>0.1081098818071741</v>
+        <v>0.1526015110517656</v>
       </c>
       <c r="P5">
-        <v>0.1081098818071741</v>
+        <v>0.1526015110517656</v>
       </c>
       <c r="Q5">
-        <v>3.12247507677</v>
+        <v>4.63891151787</v>
       </c>
       <c r="R5">
-        <v>28.10227569093</v>
+        <v>41.75020366083</v>
       </c>
       <c r="S5">
-        <v>0.08797491926743789</v>
+        <v>0.1175669445057114</v>
       </c>
       <c r="T5">
-        <v>0.08797491926743789</v>
+        <v>0.1175669445057114</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1.52901</v>
       </c>
       <c r="I6">
-        <v>0.813754652182035</v>
+        <v>0.7704179578263169</v>
       </c>
       <c r="J6">
-        <v>0.813754652182035</v>
+        <v>0.7704179578263169</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>107.212106</v>
       </c>
       <c r="O6">
-        <v>0.6306349784216607</v>
+        <v>0.5991759712230392</v>
       </c>
       <c r="P6">
-        <v>0.6306349784216608</v>
+        <v>0.5991759712230392</v>
       </c>
       <c r="Q6">
         <v>18.21426468834</v>
@@ -818,10 +818,10 @@
         <v>163.92838219506</v>
       </c>
       <c r="S6">
-        <v>0.5131821475193437</v>
+        <v>0.4616159281282539</v>
       </c>
       <c r="T6">
-        <v>0.5131821475193438</v>
+        <v>0.4616159281282539</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1.52901</v>
       </c>
       <c r="I7">
-        <v>0.813754652182035</v>
+        <v>0.7704179578263169</v>
       </c>
       <c r="J7">
-        <v>0.813754652182035</v>
+        <v>0.7704179578263169</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>44.415097</v>
       </c>
       <c r="O7">
-        <v>0.2612551397711651</v>
+        <v>0.2482225177251951</v>
       </c>
       <c r="P7">
-        <v>0.2612551397711651</v>
+        <v>0.2482225177251951</v>
       </c>
       <c r="Q7">
         <v>7.54568082933</v>
@@ -880,10 +880,10 @@
         <v>67.91112746397</v>
       </c>
       <c r="S7">
-        <v>0.2125975853952534</v>
+        <v>0.1912350851923516</v>
       </c>
       <c r="T7">
-        <v>0.2125975853952534</v>
+        <v>0.1912350851923516</v>
       </c>
     </row>
   </sheetData>
